--- a/Accounting_PL/FinancialFolder/FinancialSheets.xlsx
+++ b/Accounting_PL/FinancialFolder/FinancialSheets.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taylo\Documents\File_Hold\Accounting_PL\FinancialFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File_Hold\Accounting_PL\FinancialFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9783A0DD-7496-4F8E-8A8B-1070B2043A11}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E487F03-7D3D-4950-A7EB-BFD5E6EFEF9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="1665" windowWidth="8835" windowHeight="7545" xr2:uid="{4B3EFBA0-E302-43CF-9661-F7D8A50CA066}"/>
+    <workbookView xWindow="16545" yWindow="4980" windowWidth="9750" windowHeight="8265" xr2:uid="{5A926B1C-57B6-4C71-B78D-732D2F67C697}"/>
   </bookViews>
   <sheets>
-    <sheet name="YTD" sheetId="13" r:id="rId1"/>
-    <sheet name="December" sheetId="12" r:id="rId2"/>
-    <sheet name="November" sheetId="11" r:id="rId3"/>
-    <sheet name="October" sheetId="10" r:id="rId4"/>
-    <sheet name="September" sheetId="9" r:id="rId5"/>
-    <sheet name="August" sheetId="8" r:id="rId6"/>
-    <sheet name="July" sheetId="7" r:id="rId7"/>
-    <sheet name="June" sheetId="6" r:id="rId8"/>
-    <sheet name="May" sheetId="5" r:id="rId9"/>
-    <sheet name="April" sheetId="4" r:id="rId10"/>
-    <sheet name="March" sheetId="3" r:id="rId11"/>
-    <sheet name="February" sheetId="2" r:id="rId12"/>
-    <sheet name="January" sheetId="1" r:id="rId13"/>
+    <sheet name="YTD" sheetId="14" r:id="rId1"/>
+    <sheet name="December" sheetId="13" r:id="rId2"/>
+    <sheet name="November" sheetId="12" r:id="rId3"/>
+    <sheet name="October" sheetId="11" r:id="rId4"/>
+    <sheet name="September" sheetId="10" r:id="rId5"/>
+    <sheet name="August" sheetId="9" r:id="rId6"/>
+    <sheet name="July" sheetId="8" r:id="rId7"/>
+    <sheet name="June" sheetId="7" r:id="rId8"/>
+    <sheet name="May" sheetId="6" r:id="rId9"/>
+    <sheet name="April" sheetId="5" r:id="rId10"/>
+    <sheet name="March" sheetId="4" r:id="rId11"/>
+    <sheet name="February" sheetId="3" r:id="rId12"/>
+    <sheet name="January" sheetId="2" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,29 +43,262 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="5">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>One</t>
-  </si>
-  <si>
-    <t>Two</t>
-  </si>
-  <si>
-    <t>Student1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="80">
+  <si>
+    <t>Miami Springs - ###</t>
+  </si>
+  <si>
+    <t>Dates</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Net Sales</t>
+  </si>
+  <si>
+    <t>Primary Supplier</t>
+  </si>
+  <si>
+    <t>Other Suppliers</t>
+  </si>
+  <si>
+    <t>Bread</t>
+  </si>
+  <si>
+    <t>Produce</t>
+  </si>
+  <si>
+    <t>Carbon Dioxide</t>
+  </si>
+  <si>
+    <t>Food Cost</t>
+  </si>
+  <si>
+    <t>Craft labor</t>
+  </si>
+  <si>
+    <t>Host/Cashier</t>
+  </si>
+  <si>
+    <t>Cooks</t>
+  </si>
+  <si>
+    <t>Servers</t>
+  </si>
+  <si>
+    <t>DMO</t>
+  </si>
+  <si>
+    <t>Supervisors</t>
+  </si>
+  <si>
+    <t>Overtime</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>General Manager</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Bonuses</t>
+  </si>
+  <si>
+    <t>Labor Expenses</t>
+  </si>
+  <si>
+    <t>Payroll Taxes</t>
+  </si>
+  <si>
+    <t>Labor Cost</t>
+  </si>
+  <si>
+    <t>Fees</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>Fuel/Delivery</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>Licenses/Permits</t>
+  </si>
+  <si>
+    <t>Payroll Processing</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Workers Compensation</t>
+  </si>
+  <si>
+    <t>Local Marketing</t>
+  </si>
+  <si>
+    <t>Advertising</t>
+  </si>
+  <si>
+    <t>Charitable Contributions</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Auto/Travel</t>
+  </si>
+  <si>
+    <t>Cash Shortages</t>
+  </si>
+  <si>
+    <t>Repair/Matinenace</t>
+  </si>
+  <si>
+    <t>Eletrical</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>HVAC</t>
+  </si>
+  <si>
+    <t>Lawn/Parking</t>
+  </si>
+  <si>
+    <t>Painting</t>
+  </si>
+  <si>
+    <t>Plumbing</t>
+  </si>
+  <si>
+    <t>Remodeling</t>
+  </si>
+  <si>
+    <t>Structural</t>
+  </si>
+  <si>
+    <t>Supplies</t>
+  </si>
+  <si>
+    <t>Dish Machine</t>
+  </si>
+  <si>
+    <t>Janitorial</t>
+  </si>
+  <si>
+    <t>Office/Computer</t>
+  </si>
+  <si>
+    <t>Restuarant</t>
+  </si>
+  <si>
+    <t>Uniforms</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Data/Telephone</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Trash</t>
+  </si>
+  <si>
+    <t>Water &amp; Sewer</t>
+  </si>
+  <si>
+    <t>Expenses Cost</t>
+  </si>
+  <si>
+    <t>Overhead</t>
+  </si>
+  <si>
+    <t>Mortgage/Rent</t>
+  </si>
+  <si>
+    <t>Loan Payments</t>
+  </si>
+  <si>
+    <t>Association/CAM Fees</t>
+  </si>
+  <si>
+    <t>Property Taxes</t>
+  </si>
+  <si>
+    <t>Advertising Coop</t>
+  </si>
+  <si>
+    <t>National Advertising</t>
+  </si>
+  <si>
+    <t>Licensing Fee</t>
+  </si>
+  <si>
+    <t>Overhead Cost</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Return on Revenue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -93,7 +326,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -408,424 +643,5930 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F467772-52A0-4EC5-824F-7C97016C4090}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1857CDE2-1BE4-426B-BA63-3FD2B1946DF2}">
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED3660B-038F-42E4-A42B-E75A0C9CD27B}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1BFF93B-64AA-4A9B-A827-135B4F4F78FE}">
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86F4560-960B-41A2-A04A-2641FD6953B8}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0189F7E-4ABF-4EA6-9673-DAECA3E62453}">
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8471F2-1826-4A90-BC00-8A1329E76AB1}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3122F01B-D9E3-4143-909F-67280F854EDF}">
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24314556-752E-4C32-8891-6535C829AD6E}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44454694-7B22-4D3A-B938-0F4F0C6CDC75}">
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF52DCE-7DAC-4EFC-BF25-71B29174539D}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71191A81-861B-4B65-89DD-06B69174535F}">
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83EE727-6C22-4981-8879-7F50622DE05C}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D76E7DE-395A-4D04-8D89-BFDC2C09C869}">
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9D5C2A-48DF-4496-B456-C48EE9B4FD83}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9562D987-8737-40DA-9134-C778837789BF}">
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582BF8E7-87CA-4D96-A403-38942AEC6104}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27E7FCB-415F-40A0-A5B6-1E382B7F28C2}">
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE28BD6-62EB-4F01-8203-DC4C652A9BE3}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAF6AF9-4430-41DD-A815-4C2F8B0A6403}">
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2B0E00-B7FB-4047-9D09-C16A99948981}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BAEE5A-3A6F-4DD5-9EFB-638202192C3B}">
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B331363C-077C-4181-B7ED-500CA8B7E8D9}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2F7420-0A25-4F3C-AC8E-90790161FEFA}">
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900DE6C1-6AD4-4432-AB83-29756030F46B}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE654F7-FAA5-45B7-A5D3-82231C401BC3}">
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Accounting_PL/FinancialFolder/FinancialSheets.xlsx
+++ b/Accounting_PL/FinancialFolder/FinancialSheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File_Hold\Accounting_PL\FinancialFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dynamic Elements 3\Desktop\File_Hold\Accounting_PL\FinancialFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E487F03-7D3D-4950-A7EB-BFD5E6EFEF9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D78ED9B-0B18-4D36-8541-D9E05A090AE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16545" yWindow="4980" windowWidth="9750" windowHeight="8265" xr2:uid="{5A926B1C-57B6-4C71-B78D-732D2F67C697}"/>
+    <workbookView xWindow="1780" yWindow="2690" windowWidth="28800" windowHeight="15450" xr2:uid="{879899CC-68B7-46E5-AB89-E2D4668ADB04}"/>
   </bookViews>
   <sheets>
     <sheet name="YTD" sheetId="14" r:id="rId1"/>
@@ -643,25 +643,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1857CDE2-1BE4-426B-BA63-3FD2B1946DF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C53D56-8912-439C-B984-DA23BD34B64F}">
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +682,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -696,7 +696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -722,367 +722,367 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -1099,25 +1099,25 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1BFF93B-64AA-4A9B-A827-135B4F4F78FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB2C914-FE3C-42E2-9C4F-82642DEAD9A5}">
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -1178,367 +1178,367 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -1555,25 +1555,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0189F7E-4ABF-4EA6-9673-DAECA3E62453}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F9D2F4-9604-4EC2-9977-5D59ABEB577D}">
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -1634,367 +1634,367 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -2011,25 +2011,25 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3122F01B-D9E3-4143-909F-67280F854EDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F3B158-9B8B-4B64-8906-F00D743D49A4}">
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -2090,367 +2090,367 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -2467,25 +2467,25 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44454694-7B22-4D3A-B938-0F4F0C6CDC75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F349932A-BAD6-4004-8A79-D892E0FB5670}">
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -2546,367 +2546,367 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -2919,30 +2919,30 @@
     <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71191A81-861B-4B65-89DD-06B69174535F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218046E3-AF48-487D-8ABC-8BB529C2C3C2}">
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -3003,367 +3003,367 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -3380,25 +3380,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D76E7DE-395A-4D04-8D89-BFDC2C09C869}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE99D846-759D-4D27-BFA6-1AA15839A766}">
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -3459,367 +3459,367 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -3836,25 +3836,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9562D987-8737-40DA-9134-C778837789BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36A8C26-87F6-4A32-89A4-8716FF9CB890}">
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -3915,367 +3915,367 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -4292,25 +4292,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27E7FCB-415F-40A0-A5B6-1E382B7F28C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF92972-62E2-43E0-ADDF-B2B4463C2AB8}">
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -4371,367 +4371,367 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -4748,25 +4748,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAF6AF9-4430-41DD-A815-4C2F8B0A6403}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52622E98-52C8-412C-ADB9-18D8BBD149C0}">
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4787,7 +4787,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -4827,367 +4827,367 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -5204,25 +5204,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BAEE5A-3A6F-4DD5-9EFB-638202192C3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5741E9E6-31A7-48EB-8C9B-E17E7A59C028}">
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5243,7 +5243,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -5283,367 +5283,367 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -5660,25 +5660,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2F7420-0A25-4F3C-AC8E-90790161FEFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98234637-FCE9-44A5-8901-3CDAA57F9253}">
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5699,7 +5699,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -5739,367 +5739,367 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -6116,25 +6116,25 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE654F7-FAA5-45B7-A5D3-82231C401BC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BF8F61-50A2-4414-B812-53125B05854B}">
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6155,7 +6155,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -6195,367 +6195,367 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>

--- a/Accounting_PL/FinancialFolder/FinancialSheets.xlsx
+++ b/Accounting_PL/FinancialFolder/FinancialSheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dynamic Elements 3\Desktop\File_Hold\Accounting_PL\FinancialFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taylo\Documents\File_Hold\Accounting_PL\FinancialFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D78ED9B-0B18-4D36-8541-D9E05A090AE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{136E9BE0-1A54-42E1-AA83-3B2D47E10EBD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="2690" windowWidth="28800" windowHeight="15450" xr2:uid="{879899CC-68B7-46E5-AB89-E2D4668ADB04}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18000" windowHeight="9360" xr2:uid="{D3B9AF15-018E-4585-B0F6-01927D54A2F4}"/>
   </bookViews>
   <sheets>
     <sheet name="YTD" sheetId="14" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="82">
   <si>
     <t>Miami Springs - ###</t>
   </si>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t>Return on Revenue</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
   </si>
 </sst>
 </file>
@@ -643,25 +649,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C53D56-8912-439C-B984-DA23BD34B64F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6739524A-D12E-47F6-B8B2-14D94AC86692}">
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +688,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -696,7 +702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -722,367 +728,367 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -1099,25 +1105,25 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB2C914-FE3C-42E2-9C4F-82642DEAD9A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616E00B9-E4C5-4EC5-A040-61DA887286C2}">
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1138,7 +1144,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1152,7 +1158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -1178,367 +1184,367 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -1555,25 +1561,27 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F9D2F4-9604-4EC2-9977-5D59ABEB577D}">
-  <dimension ref="A1:I78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22388D5E-DEF4-4E89-B047-F552B3DBD102}">
+  <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1593,8 +1601,12 @@
         <v>1</v>
       </c>
       <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1607,8 +1619,11 @@
       <c r="H2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -1633,403 +1648,410 @@
       <c r="I3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F3B158-9B8B-4B64-8906-F00D743D49A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC3C027-814F-4623-BC9E-BC3C5C25D7D8}">
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2050,7 +2072,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -2064,7 +2086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -2090,367 +2112,367 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -2467,25 +2489,25 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F349932A-BAD6-4004-8A79-D892E0FB5670}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA354AA-D225-432B-B68C-06BF972BDCA7}">
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2506,7 +2528,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -2520,7 +2542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -2546,367 +2568,367 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -2919,30 +2941,34 @@
     <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218046E3-AF48-487D-8ABC-8BB529C2C3C2}">
-  <dimension ref="A1:I78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6CE95E-E5DE-4543-BDEA-E7FD7874A52F}">
+  <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2962,8 +2988,15 @@
         <v>1</v>
       </c>
       <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -2976,8 +3009,14 @@
       <c r="H2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -3002,403 +3041,416 @@
       <c r="I3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE99D846-759D-4D27-BFA6-1AA15839A766}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCEE8DFE-389F-4B05-8AFA-F7DD682EEF9B}">
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3419,7 +3471,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -3433,7 +3485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -3459,367 +3511,367 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -3836,25 +3888,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36A8C26-87F6-4A32-89A4-8716FF9CB890}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B628C3-14F9-4442-B550-64F7727C8C14}">
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3875,7 +3927,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -3889,7 +3941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -3915,367 +3967,367 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -4292,25 +4344,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF92972-62E2-43E0-ADDF-B2B4463C2AB8}">
-  <dimension ref="A1:I78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04CFE19-D4B1-4A7C-8E12-C43EBA578B52}">
+  <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4330,8 +4384,12 @@
         <v>1</v>
       </c>
       <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -4344,8 +4402,11 @@
       <c r="H2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -4370,403 +4431,410 @@
       <c r="I3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52622E98-52C8-412C-ADB9-18D8BBD149C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C863229-24F7-4889-B53E-9DFE01146841}">
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4787,7 +4855,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -4801,7 +4869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -4827,367 +4895,367 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -5204,25 +5272,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5741E9E6-31A7-48EB-8C9B-E17E7A59C028}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9C5406-BF73-4FAA-B449-A9B0F874C966}">
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5243,7 +5311,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -5257,7 +5325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -5283,367 +5351,367 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -5660,25 +5728,27 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98234637-FCE9-44A5-8901-3CDAA57F9253}">
-  <dimension ref="A1:I78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6ACCA05-1E36-4A69-A202-CF55BDA17A4B}">
+  <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5698,8 +5768,12 @@
         <v>1</v>
       </c>
       <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -5712,8 +5786,11 @@
       <c r="H2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -5738,403 +5815,410 @@
       <c r="I3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BF8F61-50A2-4414-B812-53125B05854B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66AA988A-CA6F-40CF-862F-4DBCB0D55696}">
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6155,7 +6239,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -6169,7 +6253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -6195,367 +6279,367 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>

--- a/Accounting_PL/FinancialFolder/FinancialSheets.xlsx
+++ b/Accounting_PL/FinancialFolder/FinancialSheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taylo\Documents\File_Hold\Accounting_PL\FinancialFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEE3D025-CCA8-4FA9-9674-381AC23E6A7D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF910E69-257B-455B-915E-99C9ED3D3348}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="870" windowWidth="18000" windowHeight="9360" xr2:uid="{1CEFB859-7390-45F3-A8E2-F87CFB52AA6D}"/>
+    <workbookView xWindow="3825" yWindow="1845" windowWidth="18000" windowHeight="9360" xr2:uid="{B585E80E-8426-42FF-9901-9DD09306DE37}"/>
   </bookViews>
   <sheets>
     <sheet name="YTD" sheetId="14" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="128">
   <si>
     <t>IHOP Restaurant - 158</t>
   </si>
@@ -415,6 +415,12 @@
   </si>
   <si>
     <t>Week 23</t>
+  </si>
+  <si>
+    <t>06/07/20 - 06/13/20</t>
+  </si>
+  <si>
+    <t>Week 24</t>
   </si>
   <si>
     <t>12/29/19 - 03/28/20</t>
@@ -838,7 +844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070B412F-287D-452D-AA70-31B2FD89C8D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFAB8F2-C42E-47F9-AF15-5827E9B1A445}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -859,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C2" s="4"/>
     </row>
@@ -1697,7 +1703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A6C5B6C-7CC4-45DC-8FA8-D6EBFC2E0B28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C576C2B-D6F2-44DE-9200-4C1249EE4BD7}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4445,7 +4451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5F3847-34EF-4706-88D8-7B8D47849617}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29FDFD0-1B5D-4F15-94BC-A1581D2137AC}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7650,7 +7656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B06AFF2-DFEF-473E-A2F5-821287C8CB0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1EDBF8-046E-48B0-A983-01A1222B08C9}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10398,7 +10404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C38453E-96C7-46DF-BBDC-9A3EDA90C415}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F7907A-BBDE-48DD-BDE4-A75484697E12}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -13146,7 +13152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91608F64-B96C-4669-AB0E-F9F0254B0435}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC864D-7199-47A7-988D-1C203CDBFD4B}">
   <dimension ref="A1:A79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13534,7 +13540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA03389F-608A-4F3C-8B4D-0A33F483161D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D0E3C1-51D3-4630-B0EB-1DCD0A46C997}">
   <dimension ref="A1:A79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13922,7 +13928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF84A5BC-C9BE-4F19-8E52-55DE340BCE24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CEF08D-D244-432E-8651-0345FE3CFC90}">
   <dimension ref="A1:A79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14310,7 +14316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A202159-07AF-4AE4-85D2-7B70147729A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF04AA62-9A10-4690-85D8-0D6634C59D11}">
   <dimension ref="A1:A79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14698,7 +14704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3801A24-E916-4897-957D-F99CBF5AC2DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA174EDB-4B7A-41C9-8143-17E4EF8FB5A8}">
   <dimension ref="A1:A79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15086,7 +15092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8656773D-0BCD-4208-9F15-333411F57669}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CDBEB2-02B4-4704-AE79-2FC20B736915}">
   <dimension ref="A1:A79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15474,11 +15480,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C60772-9EC8-463C-9834-76EAA77400F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989073FC-03BC-4BF3-A247-DA8F923B5A21}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15489,10 +15495,12 @@
     <col min="3" max="3" width="8.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="5"/>
+    <col min="6" max="6" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -15504,8 +15512,12 @@
         <v>122</v>
       </c>
       <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>121</v>
       </c>
@@ -15514,8 +15526,12 @@
         <v>123</v>
       </c>
       <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>76</v>
       </c>
@@ -15528,8 +15544,14 @@
       <c r="E3" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -15539,8 +15561,11 @@
       <c r="D4" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -15558,8 +15583,15 @@
         <f>D5/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7" t="e">
+        <f>F5/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -15577,8 +15609,15 @@
         <f>D6/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7" t="e">
+        <f>F6/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -15596,8 +15635,15 @@
         <f>D7/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7" t="e">
+        <f>F7/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -15615,8 +15661,15 @@
         <f>D8/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7" t="e">
+        <f>F8/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -15634,8 +15687,15 @@
         <f>D9/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7" t="e">
+        <f>F9/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -15653,8 +15713,15 @@
         <f>D10/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7" t="e">
+        <f>F10/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -15672,13 +15739,20 @@
         <f>D11/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7" t="e">
+        <f>F11/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -15696,8 +15770,15 @@
         <f>D13/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7" t="e">
+        <f>F13/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -15715,8 +15796,15 @@
         <f>D14/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7" t="e">
+        <f>F14/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
@@ -15734,8 +15822,15 @@
         <f>D15/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7" t="e">
+        <f>F15/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -15753,8 +15848,15 @@
         <f>D16/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7" t="e">
+        <f>F16/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -15772,8 +15874,15 @@
         <f>D17/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7" t="e">
+        <f>F17/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -15791,13 +15900,20 @@
         <f>D18/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7" t="e">
+        <f>F18/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
@@ -15815,8 +15931,15 @@
         <f>D20/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7" t="e">
+        <f>F20/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
@@ -15834,8 +15957,15 @@
         <f>D21/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7" t="e">
+        <f>F21/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -15853,13 +15983,20 @@
         <f>D22/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7" t="e">
+        <f>F22/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>21</v>
       </c>
@@ -15877,8 +16014,15 @@
         <f>D24/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7" t="e">
+        <f>F24/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
@@ -15896,13 +16040,20 @@
         <f>D25/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7" t="e">
+        <f>F25/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>24</v>
       </c>
@@ -15920,8 +16071,15 @@
         <f>D27/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" s="8">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7" t="e">
+        <f>F27/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>25</v>
       </c>
@@ -15939,8 +16097,15 @@
         <f>D28/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7" t="e">
+        <f>F28/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>26</v>
       </c>
@@ -15958,8 +16123,15 @@
         <f>D29/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" s="8">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7" t="e">
+        <f>F29/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>27</v>
       </c>
@@ -15977,8 +16149,15 @@
         <f>D30/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" s="8">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7" t="e">
+        <f>F30/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>28</v>
       </c>
@@ -15996,8 +16175,15 @@
         <f>D31/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" s="8">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7" t="e">
+        <f>F31/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>29</v>
       </c>
@@ -16015,8 +16201,15 @@
         <f>D32/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" s="8">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7" t="e">
+        <f>F32/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>30</v>
       </c>
@@ -16034,13 +16227,20 @@
         <f>D33/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" s="8">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7" t="e">
+        <f>F33/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>31</v>
       </c>
@@ -16058,8 +16258,15 @@
         <f>D35/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" s="8">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7" t="e">
+        <f>F35/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>32</v>
       </c>
@@ -16077,13 +16284,20 @@
         <f>D36/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" s="8">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7" t="e">
+        <f>F36/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>34</v>
       </c>
@@ -16101,8 +16315,15 @@
         <f>D38/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" s="8">
+        <v>0</v>
+      </c>
+      <c r="G38" s="7" t="e">
+        <f>F38/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>35</v>
       </c>
@@ -16120,13 +16341,20 @@
         <f>D39/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" s="8">
+        <v>0</v>
+      </c>
+      <c r="G39" s="7" t="e">
+        <f>F39/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>37</v>
       </c>
@@ -16144,8 +16372,15 @@
         <f>D41/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" s="8">
+        <v>0</v>
+      </c>
+      <c r="G41" s="7" t="e">
+        <f>F41/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>38</v>
       </c>
@@ -16163,13 +16398,20 @@
         <f>D42/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" s="8">
+        <v>0</v>
+      </c>
+      <c r="G42" s="7" t="e">
+        <f>F42/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>40</v>
       </c>
@@ -16187,8 +16429,15 @@
         <f>D44/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" s="8">
+        <v>0</v>
+      </c>
+      <c r="G44" s="7" t="e">
+        <f>F44/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>41</v>
       </c>
@@ -16206,8 +16455,15 @@
         <f>D45/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" s="8">
+        <v>0</v>
+      </c>
+      <c r="G45" s="7" t="e">
+        <f>F45/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>42</v>
       </c>
@@ -16225,8 +16481,15 @@
         <f>D46/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" s="8">
+        <v>0</v>
+      </c>
+      <c r="G46" s="7" t="e">
+        <f>F46/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>43</v>
       </c>
@@ -16244,8 +16507,15 @@
         <f>D47/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" s="8">
+        <v>0</v>
+      </c>
+      <c r="G47" s="7" t="e">
+        <f>F47/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>44</v>
       </c>
@@ -16263,8 +16533,15 @@
         <f>D48/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" s="8">
+        <v>0</v>
+      </c>
+      <c r="G48" s="7" t="e">
+        <f>F48/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>45</v>
       </c>
@@ -16282,8 +16559,15 @@
         <f>D49/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" s="8">
+        <v>0</v>
+      </c>
+      <c r="G49" s="7" t="e">
+        <f>F49/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>46</v>
       </c>
@@ -16301,8 +16585,15 @@
         <f>D50/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" s="8">
+        <v>0</v>
+      </c>
+      <c r="G50" s="7" t="e">
+        <f>F50/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>47</v>
       </c>
@@ -16320,13 +16611,20 @@
         <f>D51/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" s="8">
+        <v>0</v>
+      </c>
+      <c r="G51" s="7" t="e">
+        <f>F51/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>49</v>
       </c>
@@ -16344,8 +16642,15 @@
         <f>D53/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" s="8">
+        <v>0</v>
+      </c>
+      <c r="G53" s="7" t="e">
+        <f>F53/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>50</v>
       </c>
@@ -16363,8 +16668,15 @@
         <f>D54/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" s="8">
+        <v>0</v>
+      </c>
+      <c r="G54" s="7" t="e">
+        <f>F54/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>51</v>
       </c>
@@ -16382,8 +16694,15 @@
         <f>D55/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" s="8">
+        <v>0</v>
+      </c>
+      <c r="G55" s="7" t="e">
+        <f>F55/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>52</v>
       </c>
@@ -16401,8 +16720,15 @@
         <f>D56/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" s="8">
+        <v>0</v>
+      </c>
+      <c r="G56" s="7" t="e">
+        <f>F56/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>53</v>
       </c>
@@ -16420,13 +16746,20 @@
         <f>D57/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" s="8">
+        <v>0</v>
+      </c>
+      <c r="G57" s="7" t="e">
+        <f>F57/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>55</v>
       </c>
@@ -16444,8 +16777,15 @@
         <f>D59/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" s="8">
+        <v>0</v>
+      </c>
+      <c r="G59" s="7" t="e">
+        <f>F59/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>56</v>
       </c>
@@ -16463,8 +16803,15 @@
         <f>D60/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" s="8">
+        <v>0</v>
+      </c>
+      <c r="G60" s="7" t="e">
+        <f>F60/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>57</v>
       </c>
@@ -16482,8 +16829,15 @@
         <f>D61/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" s="8">
+        <v>0</v>
+      </c>
+      <c r="G61" s="7" t="e">
+        <f>F61/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>58</v>
       </c>
@@ -16501,8 +16855,15 @@
         <f>D62/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" s="8">
+        <v>0</v>
+      </c>
+      <c r="G62" s="7" t="e">
+        <f>F62/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>59</v>
       </c>
@@ -16520,8 +16881,15 @@
         <f>D63/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" s="8">
+        <v>0</v>
+      </c>
+      <c r="G63" s="7" t="e">
+        <f>F63/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>60</v>
       </c>
@@ -16539,8 +16907,15 @@
         <f>D64/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" s="8">
+        <v>0</v>
+      </c>
+      <c r="G64" s="7" t="e">
+        <f>F64/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>61</v>
       </c>
@@ -16558,8 +16933,15 @@
         <f>D65/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F65" s="8">
+        <v>0</v>
+      </c>
+      <c r="G65" s="7" t="e">
+        <f>F65/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>62</v>
       </c>
@@ -16577,13 +16959,20 @@
         <f>D66/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" s="8">
+        <v>0</v>
+      </c>
+      <c r="G66" s="7" t="e">
+        <f>F66/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>64</v>
       </c>
@@ -16601,8 +16990,15 @@
         <f>D68/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" s="8">
+        <v>0</v>
+      </c>
+      <c r="G68" s="7" t="e">
+        <f>F68/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>65</v>
       </c>
@@ -16620,8 +17016,15 @@
         <f>D69/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" s="8">
+        <v>0</v>
+      </c>
+      <c r="G69" s="7" t="e">
+        <f>F69/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>66</v>
       </c>
@@ -16639,8 +17042,15 @@
         <f>D70/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" s="8">
+        <v>0</v>
+      </c>
+      <c r="G70" s="7" t="e">
+        <f>F70/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>67</v>
       </c>
@@ -16658,8 +17068,15 @@
         <f>D71/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" s="8">
+        <v>0</v>
+      </c>
+      <c r="G71" s="7" t="e">
+        <f>F71/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>68</v>
       </c>
@@ -16677,8 +17094,15 @@
         <f>D72/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" s="8">
+        <v>0</v>
+      </c>
+      <c r="G72" s="7" t="e">
+        <f>F72/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>69</v>
       </c>
@@ -16696,8 +17120,15 @@
         <f>D73/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" s="8">
+        <v>0</v>
+      </c>
+      <c r="G73" s="7" t="e">
+        <f>F73/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>70</v>
       </c>
@@ -16715,8 +17146,15 @@
         <f>D74/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F74" s="8">
+        <v>0</v>
+      </c>
+      <c r="G74" s="7" t="e">
+        <f>F74/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>71</v>
       </c>
@@ -16734,8 +17172,15 @@
         <f>D75/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F75" s="8">
+        <v>0</v>
+      </c>
+      <c r="G75" s="7" t="e">
+        <f>F75/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>72</v>
       </c>
@@ -16755,8 +17200,16 @@
         <f>D77/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F77" s="6">
+        <f>F75+F66+F25+F11</f>
+        <v>0</v>
+      </c>
+      <c r="G77" s="7" t="e">
+        <f>F77/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>73</v>
       </c>
@@ -16776,13 +17229,23 @@
         <f>D79/D4</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="F79" s="6">
+        <f>F4-F77</f>
+        <v>0</v>
+      </c>
+      <c r="G79" s="7" t="e">
+        <f>F79/F4</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.41666666666666669" right="0.41666666666666669" top="0.41666666666666669" bottom="0.41666666666666669" header="0.3" footer="0.3"/>
   <pageSetup scale="63" orientation="portrait" r:id="rId1"/>
@@ -16790,7 +17253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BDDBCB-B30E-44CA-9C14-8AA8B86FDCC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2592F6-8D2D-4B6A-B807-FD59C399DBC7}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/Accounting_PL/FinancialFolder/FinancialSheets.xlsx
+++ b/Accounting_PL/FinancialFolder/FinancialSheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taylo\Documents\File_Hold\Accounting_PL\FinancialFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF910E69-257B-455B-915E-99C9ED3D3348}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25EFCC69-5BCB-4F46-B660-6688629E04A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="1845" windowWidth="18000" windowHeight="9360" xr2:uid="{B585E80E-8426-42FF-9901-9DD09306DE37}"/>
+    <workbookView xWindow="3825" yWindow="1845" windowWidth="18000" windowHeight="9360" xr2:uid="{F15C2A08-E8AD-449C-886D-788641E2EC22}"/>
   </bookViews>
   <sheets>
     <sheet name="YTD" sheetId="14" r:id="rId1"/>
@@ -844,7 +844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFAB8F2-C42E-47F9-AF15-5827E9B1A445}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A815B39-82FB-4058-83E9-CD7E99C6089D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1703,7 +1703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C576C2B-D6F2-44DE-9200-4C1249EE4BD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D255702A-E89B-4282-8DF6-8F93EB450C12}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4451,7 +4451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29FDFD0-1B5D-4F15-94BC-A1581D2137AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFC2A2A-9BAC-4A60-91ED-D8630FC4F7B7}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7656,7 +7656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1EDBF8-046E-48B0-A983-01A1222B08C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2200C622-6752-4483-A916-E9390504BF92}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10404,7 +10404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F7907A-BBDE-48DD-BDE4-A75484697E12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D39167-3D2F-4EA0-9C01-D781D8B2E027}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -13152,7 +13152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAC864D-7199-47A7-988D-1C203CDBFD4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF464E1-1E8F-46A5-97C4-335228F72CA3}">
   <dimension ref="A1:A79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13540,7 +13540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D0E3C1-51D3-4630-B0EB-1DCD0A46C997}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DC5765-4B77-4AB4-8ECF-6EAEFD10BE32}">
   <dimension ref="A1:A79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13928,7 +13928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CEF08D-D244-432E-8651-0345FE3CFC90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B2849B-CBE9-423F-9A74-423DCA0CE9C5}">
   <dimension ref="A1:A79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14316,7 +14316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF04AA62-9A10-4690-85D8-0D6634C59D11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6D507D-E657-4CFB-97CD-7347EA302569}">
   <dimension ref="A1:A79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14704,7 +14704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA174EDB-4B7A-41C9-8143-17E4EF8FB5A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB202659-D329-4CAA-83B0-31DA1E436AE7}">
   <dimension ref="A1:A79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15092,7 +15092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CDBEB2-02B4-4704-AE79-2FC20B736915}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6F5D0E-735B-4E08-A300-80D9479CAE00}">
   <dimension ref="A1:A79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15480,7 +15480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989073FC-03BC-4BF3-A247-DA8F923B5A21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF450224-4C18-4885-949D-1CE299A46B61}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -17253,7 +17253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2592F6-8D2D-4B6A-B807-FD59C399DBC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D890C37-7255-4D86-A292-A9BA3E4C528C}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/Accounting_PL/FinancialFolder/FinancialSheets.xlsx
+++ b/Accounting_PL/FinancialFolder/FinancialSheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taylo\Documents\File_Hold\Accounting_PL\FinancialFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25EFCC69-5BCB-4F46-B660-6688629E04A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1C17B05-927D-423C-9900-8459393CE528}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="1845" windowWidth="18000" windowHeight="9360" xr2:uid="{F15C2A08-E8AD-449C-886D-788641E2EC22}"/>
+    <workbookView xWindow="5265" yWindow="1560" windowWidth="18000" windowHeight="9360" xr2:uid="{D9265BDA-C3A3-47DA-B586-431BB5185A85}"/>
   </bookViews>
   <sheets>
     <sheet name="YTD" sheetId="14" r:id="rId1"/>
@@ -844,7 +844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A815B39-82FB-4058-83E9-CD7E99C6089D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F98F118-37CF-4910-9357-A25E8A5E89FC}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1703,7 +1703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D255702A-E89B-4282-8DF6-8F93EB450C12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F5CF98-73B3-4F3B-BA9E-E78B0BB5F2D4}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4451,7 +4451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFC2A2A-9BAC-4A60-91ED-D8630FC4F7B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC00A147-4135-40BD-8397-9D154CA3D7BC}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7656,7 +7656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2200C622-6752-4483-A916-E9390504BF92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF35637-4103-4241-B2CD-F637C35A0029}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10404,7 +10404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D39167-3D2F-4EA0-9C01-D781D8B2E027}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4722987-94CB-4D66-A661-329F6F6EC54B}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -13152,7 +13152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF464E1-1E8F-46A5-97C4-335228F72CA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56DDC3A-4A2E-4BEF-BED4-3D76AA8EBB27}">
   <dimension ref="A1:A79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13540,7 +13540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DC5765-4B77-4AB4-8ECF-6EAEFD10BE32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE57F1D-4163-4EE2-9E18-1B35933DDB24}">
   <dimension ref="A1:A79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13928,7 +13928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B2849B-CBE9-423F-9A74-423DCA0CE9C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F87071-2BDE-4053-9EE0-CA757D970B96}">
   <dimension ref="A1:A79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14316,7 +14316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6D507D-E657-4CFB-97CD-7347EA302569}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E7C7A9-EEB5-4E11-9E64-404AB3B03726}">
   <dimension ref="A1:A79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14704,7 +14704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB202659-D329-4CAA-83B0-31DA1E436AE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614053F3-02AC-403A-BE0D-6AF85B76D3C5}">
   <dimension ref="A1:A79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15092,7 +15092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6F5D0E-735B-4E08-A300-80D9479CAE00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718EE395-A8D5-415E-8A4E-B3D6C30E273A}">
   <dimension ref="A1:A79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15480,7 +15480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF450224-4C18-4885-949D-1CE299A46B61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1745C667-2AE0-4325-9126-99E28BFB27ED}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -15495,7 +15495,7 @@
     <col min="3" max="3" width="8.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="5"/>
   </cols>
@@ -15636,7 +15636,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F7" s="8">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="G7" s="7" t="e">
         <f>F7/F4</f>
@@ -17253,7 +17253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D890C37-7255-4D86-A292-A9BA3E4C528C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E689F0C1-CBCD-4AC6-ACDC-FFCA7D3D4F29}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
